--- a/datasets/Migration Indicators/County to County Migration Flows 2009-2018.xlsx
+++ b/datasets/Migration Indicators/County to County Migration Flows 2009-2018.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20363"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Eduardo- Data Repository\7. Migration Indicators\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jematanevar\Documents\New Data Rep\datasets\Migration Indicators\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D6ED58-A6C9-4943-BCBD-7BAAC71F5EE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2009-2018" sheetId="1" r:id="rId1"/>
@@ -101,16 +102,16 @@
     <t>El Paso</t>
   </si>
   <si>
-    <t xml:space="preserve">Migration </t>
+    <t>Value</t>
   </si>
   <si>
-    <t>Value</t>
+    <t>Migration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -158,7 +159,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -176,6 +177,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -457,12 +461,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F561"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,11 +492,11 @@
       <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="F1" s="7"/>
     </row>
